--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -424,58 +424,58 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Full Name</t>
+          <t>FullName</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mobile No</t>
+          <t>MobileNo</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Email ID</t>
+          <t>EmailID</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Umaima Patel</t>
+          <t>UmaimaPatel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7590079906</t>
+          <t>7590079900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>umaimabar.patel@gmail.com</t>
+          <t>umaima.bilal.patel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Halima Alore</t>
+          <t>HalimaAlore</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7101816186</t>
+          <t>7101816168</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasmiahalima@gmail.com</t>
+          <t>hasmiahmedpatel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Surbhi Gulsundar</t>
+          <t>SurbhiGulsundar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jagruti Nanda</t>
+          <t>JagrutiNanda</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -502,14 +502,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jagruti.nanda@gmail.com</t>
+          <t>jagran2004@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sakshi Shukla</t>
+          <t>SakshiShukla</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,14 +519,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sakshi3093@gmail.com</t>
+          <t>sakshi.shukla@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kriti Sharma</t>
+          <t>KritiMishra</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -536,14 +536,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>kriti230419@gmail.com</t>
+          <t>kriti230493@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Roshan Singh</t>
+          <t>RoshaniSingh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -553,14 +553,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>singhroshan044@gmail.com</t>
+          <t>singhroshani044@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Avantika Kalita</t>
+          <t>AvantikaKalita</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -577,58 +577,58 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kavya Aher</t>
+          <t>KajalAhire</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9135835752</t>
+          <t>9135836752</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>kavyakawre49@gmail.com</t>
+          <t>kajalkaware49@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Janhavi Kumani</t>
+          <t>TanviKumani</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7859053357</t>
+          <t>7859053557</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>janhavikumani@gmail.com</t>
+          <t>kumertanvi849@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Siddhial Patel</t>
+          <t>SiddhialPatel</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9685282255</t>
+          <t>9685282155</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>siddhial.patel@gmail.com</t>
+          <t>siddhialpatel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Swapna P Daytre</t>
+          <t>SwapnaPDaytre</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -638,19 +638,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>swapnadaytre03@gmail.com</t>
+          <t>swapnapatre03@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Isha Ankesh</t>
+          <t>IshaAnkesh</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7260383704</t>
+          <t>7260338704</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -662,7 +662,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ankita Khare</t>
+          <t>AnkitaKhandekar</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -672,14 +672,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>amkhare100@gmail.com</t>
+          <t>amkhandekar10@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Harish Kumar</t>
+          <t>HarishKumar</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -696,12 +696,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bhawana Shinde</t>
+          <t>BhawanaShinde</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9596366960</t>
+          <t>9596366560</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Harshada Murkute</t>
+          <t>PrateekTripathi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -723,82 +723,82 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>harshadamurkute98@gmail.com</t>
+          <t>prateektripathi90@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mounika Borse</t>
+          <t>MunmunBorse</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7837088725</t>
+          <t>7026578875</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>mounikaborge9423@gmail.com</t>
+          <t>munmunborse@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Akshata Bhadre</t>
+          <t>AkshataBhosle</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7666700441</t>
+          <t>9738087431</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>akshabhadre444@gmail.com</t>
+          <t>akshabhosale44@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sakshi Potdar</t>
+          <t>SakshiPoddar</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9705854531</t>
+          <t>7666700441</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sakshi.potdar@gmail.com</t>
+          <t>sakshipod1234@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Atharva Kulkarni</t>
+          <t>AtharvaGupta</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9119336752</t>
+          <t>9011930000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>akulkarni002@gmail.com</t>
+          <t>akguptapoojaranj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tanujrao Kamble</t>
+          <t>TanushriKamble</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -808,19 +808,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>tanujraokamble@gmail.com</t>
+          <t>tanushrikamble457@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gaurav Mokherjee</t>
+          <t>GauravMokherjee</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9660680140</t>
+          <t>9860406106</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dharmesh Patel</t>
+          <t>DastarKhetrepal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -842,14 +842,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ddharmeshpatel@gmail.com</t>
+          <t>dastarkhetrepal@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Subodh B</t>
+          <t>SubodhSharma</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -859,14 +859,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>subodhb@kec.ac.in</t>
+          <t>subodh.sharma@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abhayraj Kishor</t>
+          <t>AbhayK</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -876,41 +876,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>abhayraj.kishor@gmail.com</t>
+          <t>abhaykr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nikita K</t>
+          <t>Nikita</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9438189292</t>
+          <t>9491892309</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>nikitak@gmail.com</t>
+          <t>nikitakulkarni05@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sanskruti D Lupt</t>
+          <t>SanskrutiDLupt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9946068092</t>
+          <t>9436088092</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>guptamalwade@gmail.com</t>
+          <t>guptasanskruti@gmail.com</t>
         </is>
       </c>
     </row>
